--- a/conejo/one_fictitious/output_test_a1.xlsx
+++ b/conejo/one_fictitious/output_test_a1.xlsx
@@ -543,7 +543,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -565,7 +565,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>43.426786</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -697,7 +697,7 @@
         <v>400</v>
       </c>
       <c r="C24" t="n">
-        <v>320.47321</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25">
@@ -867,7 +867,7 @@
         <v>24.990052</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.12152197</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>-91.732021</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.55512114</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>-41.25803</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.51418495</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>-50.509948</v>
       </c>
       <c r="D5" t="n">
-        <v>1.4232964e-13</v>
+        <v>-0.4445064</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>-21.5</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.1517552e-13</v>
+        <v>2.3385967</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>2.8699097</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.13186853</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>-274.60193</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>-0.12791242</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>-124.50995</v>
       </c>
       <c r="D9" t="n">
-        <v>1.1655341e-13</v>
+        <v>-0.36400524</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>-112.25803</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.53233265</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1047,13 +1047,13 @@
         <v>-157.5</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.8363057e-14</v>
+        <v>0.74299165</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>4.2496279</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.7000624e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1064,7 +1064,7 @@
         <v>175</v>
       </c>
       <c r="C12" t="n">
-        <v>40.926786</v>
+        <v>157.5</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0.4092255</v>
       </c>
     </row>
     <row r="13">
@@ -1084,10 +1084,10 @@
         <v>175</v>
       </c>
       <c r="C13" t="n">
-        <v>-82.092055</v>
+        <v>-23.805448</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.17976396</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>175</v>
       </c>
       <c r="C14" t="n">
-        <v>-47.981158</v>
+        <v>10.305448</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0.17976396</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1124,10 +1124,10 @@
         <v>400</v>
       </c>
       <c r="C15" t="n">
-        <v>-170.72982</v>
+        <v>-164.10417</v>
       </c>
       <c r="D15" t="n">
-        <v>9.4139291e-14</v>
+        <v>-0.14416418</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>-208.00227</v>
+        <v>-156.34132</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.15140753</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>400</v>
       </c>
       <c r="C17" t="n">
-        <v>-237.73337</v>
+        <v>-231.10771</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.4139291e-14</v>
+        <v>0.21536374</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>-275.00582</v>
+        <v>-223.34487</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.20812039</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>500</v>
       </c>
       <c r="C19" t="n">
-        <v>-293.03575</v>
+        <v>-304.34817</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.0045863754</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>500</v>
       </c>
       <c r="C20" t="n">
-        <v>-115.42744</v>
+        <v>-90.863709</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.031586706</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>500</v>
       </c>
       <c r="C21" t="n">
-        <v>-227.80895</v>
+        <v>-317.93315</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.011829732</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>500</v>
       </c>
       <c r="C22" t="n">
-        <v>-255.19915</v>
+        <v>-61.753037</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.041583927</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>500</v>
       </c>
       <c r="C23" t="n">
-        <v>-158.84469</v>
+        <v>106.56031</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.029754195</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>500</v>
       </c>
       <c r="C24" t="n">
-        <v>-309.42744</v>
+        <v>-284.86371</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.044371801</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>500</v>
       </c>
       <c r="C25" t="n">
-        <v>14.229746</v>
+        <v>192.90573</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.0070221036</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>500</v>
       </c>
       <c r="C26" t="n">
-        <v>-225.41584</v>
+        <v>-314.75383</v>
       </c>
       <c r="D26" t="n">
-        <v>2.8421709e-14</v>
+        <v>-0.047427881</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>500</v>
       </c>
       <c r="C27" t="n">
-        <v>-225.41584</v>
+        <v>-314.75383</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.8421709e-14</v>
+        <v>-0.047427881</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>274.60193</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.079183882</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1404,13 +1404,13 @@
         <v>500</v>
       </c>
       <c r="C29" t="n">
-        <v>-281.64154</v>
+        <v>-450</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.050331629</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.14999297</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>500</v>
       </c>
       <c r="C30" t="n">
-        <v>41.443843</v>
+        <v>413.04202</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-0.017726158</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>500</v>
       </c>
       <c r="C31" t="n">
-        <v>-140.80569</v>
+        <v>-291.605</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.023442924</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>500</v>
       </c>
       <c r="C32" t="n">
-        <v>-140.83585</v>
+        <v>-158.395</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.027440417</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         <v>500</v>
       </c>
       <c r="C33" t="n">
-        <v>-76.666237</v>
+        <v>-112.3025</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.021768429</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>500</v>
       </c>
       <c r="C34" t="n">
-        <v>-76.666237</v>
+        <v>-112.3025</v>
       </c>
       <c r="D34" t="n">
-        <v>-0</v>
+        <v>0.021768429</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>500</v>
       </c>
       <c r="C35" t="n">
-        <v>-69.77807900000001</v>
+        <v>116.02101</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-0.015414051</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>500</v>
       </c>
       <c r="C36" t="n">
-        <v>-69.77807900000001</v>
+        <v>116.02101</v>
       </c>
       <c r="D36" t="n">
-        <v>-0</v>
+        <v>-0.015414051</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>500</v>
       </c>
       <c r="C37" t="n">
-        <v>-133.77808</v>
+        <v>52.021009</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-0.008477727799999999</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>500</v>
       </c>
       <c r="C38" t="n">
-        <v>-133.77808</v>
+        <v>52.021009</v>
       </c>
       <c r="D38" t="n">
-        <v>-0</v>
+        <v>-0.008477727799999999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>500</v>
       </c>
       <c r="C39" t="n">
-        <v>-159.16415</v>
+        <v>-141.605</v>
       </c>
       <c r="D39" t="n">
-        <v>-0</v>
+        <v>-0.017770937</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>110.56865</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.61240446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1663,10 +1663,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>110.69017</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.61590307</v>
+        <v>-0.0034986073</v>
       </c>
     </row>
     <row r="4">
@@ -1674,10 +1674,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>110.01353</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.41884989</v>
+        <v>0.19355457</v>
       </c>
     </row>
     <row r="5">
@@ -1685,10 +1685,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>110.24567</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.55175543</v>
+        <v>0.060649027</v>
       </c>
     </row>
     <row r="6">
@@ -1696,10 +1696,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>110.05447</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.57733513</v>
+        <v>0.035069326</v>
       </c>
     </row>
     <row r="7">
@@ -1707,10 +1707,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>113.02877</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.57462307</v>
+        <v>0.037781393</v>
       </c>
     </row>
     <row r="8">
@@ -1718,10 +1718,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>109.29267</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.53275164</v>
+        <v>0.24693538</v>
       </c>
     </row>
     <row r="9">
@@ -1729,10 +1729,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>109.7019</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.55771698</v>
+        <v>0.15086038</v>
       </c>
     </row>
     <row r="10">
@@ -1740,10 +1740,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>109.88166</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.42226509</v>
+        <v>0.19013937</v>
       </c>
     </row>
     <row r="11">
@@ -1751,10 +1751,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>109.52213</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.47854807</v>
+        <v>0.13385639</v>
       </c>
     </row>
     <row r="12">
@@ -1762,10 +1762,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>109.7375</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.27885204</v>
+        <v>0.32798687</v>
       </c>
     </row>
     <row r="13">
@@ -1773,10 +1773,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>109.73025</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.24754318</v>
+        <v>0.32146608</v>
       </c>
     </row>
     <row r="14">
@@ -1784,10 +1784,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>109.74208</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.13819488</v>
+        <v>0.47407399</v>
       </c>
     </row>
     <row r="15">
@@ -1795,10 +1795,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>109.76908</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.23037251</v>
+        <v>0.36614963</v>
       </c>
     </row>
     <row r="16">
@@ -1806,10 +1806,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>100</v>
+        <v>109.80643</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.045391268</v>
+        <v>0.5670131899999999</v>
       </c>
     </row>
     <row r="17">
@@ -1817,10 +1817,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>100</v>
+        <v>109.81346</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.047810325</v>
+        <v>0.53421922</v>
       </c>
     </row>
     <row r="18">
@@ -1828,10 +1828,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>100</v>
+        <v>109.71379</v>
       </c>
       <c r="C18" t="n">
-        <v>0.025416475</v>
+        <v>0.65121922</v>
       </c>
     </row>
     <row r="19">
@@ -1839,10 +1839,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>100</v>
+        <v>109.73724</v>
       </c>
       <c r="C19" t="n">
-        <v>0.045129271</v>
+        <v>0.69204392</v>
       </c>
     </row>
     <row r="20">
@@ -1850,10 +1850,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>100</v>
+        <v>109.79573</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.057342409</v>
+        <v>0.43921955</v>
       </c>
     </row>
     <row r="21">
@@ -1861,10 +1861,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>100</v>
+        <v>109.78032</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.029431177</v>
+        <v>0.39281115</v>
       </c>
     </row>
     <row r="22">
@@ -1872,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>109.75901</v>
       </c>
       <c r="C22" t="n">
-        <v>0.065062493</v>
+        <v>0.72124257</v>
       </c>
     </row>
     <row r="23">
@@ -1883,10 +1883,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>109.74124</v>
       </c>
       <c r="C23" t="n">
-        <v>0.17329412</v>
+        <v>0.8175339700000001</v>
       </c>
     </row>
     <row r="24">
@@ -1894,10 +1894,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>100</v>
+        <v>109.77184</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.38136653</v>
       </c>
     </row>
     <row r="25">
@@ -1905,10 +1905,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>100</v>
+        <v>109.88562</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.18818427</v>
+        <v>0.42422019</v>
       </c>
     </row>
   </sheetData>

--- a/conejo/one_fictitious/output_test_a1.xlsx
+++ b/conejo/one_fictitious/output_test_a1.xlsx
@@ -477,7 +477,7 @@
         <v>76</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>76</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>37.406531</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         <v>76</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -653,7 +653,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -664,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -864,10 +864,10 @@
         <v>175</v>
       </c>
       <c r="C2" t="n">
-        <v>24.990052</v>
+        <v>39.880351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12152197</v>
+        <v>-0.025674804</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>175</v>
       </c>
       <c r="C3" t="n">
-        <v>-91.732021</v>
+        <v>-55.607927</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.55512114</v>
+        <v>-0.64420583</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>175</v>
       </c>
       <c r="C4" t="n">
-        <v>-41.25803</v>
+        <v>21.134107</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.51418495</v>
+        <v>0.41539694</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>-50.509948</v>
+        <v>-1.4590775</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4445064</v>
+        <v>-0.67019363</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>175</v>
       </c>
       <c r="C6" t="n">
-        <v>-21.5</v>
+        <v>20.339429</v>
       </c>
       <c r="D6" t="n">
-        <v>2.3385967</v>
+        <v>0.66109451</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>175</v>
       </c>
       <c r="C7" t="n">
-        <v>2.8699097</v>
+        <v>35.78614</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.13186853</v>
+        <v>-0.60048258</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>-274.60193</v>
+        <v>-271.39407</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.12791242</v>
+        <v>0.16740896</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>175</v>
       </c>
       <c r="C9" t="n">
-        <v>-124.50995</v>
+        <v>-75.45907800000001</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.36400524</v>
+        <v>-0.54881998</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1024,10 +1024,10 @@
         <v>175</v>
       </c>
       <c r="C10" t="n">
-        <v>-112.25803</v>
+        <v>-49.865893</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.53233265</v>
+        <v>0.43005801</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>175</v>
       </c>
       <c r="C11" t="n">
-        <v>-157.5</v>
+        <v>-115.66057</v>
       </c>
       <c r="D11" t="n">
-        <v>0.74299165</v>
+        <v>0.21003524</v>
       </c>
       <c r="E11" t="n">
-        <v>4.2496279</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>175</v>
       </c>
       <c r="C12" t="n">
-        <v>157.5</v>
+        <v>-149.40653</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4092255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1084,13 +1084,13 @@
         <v>175</v>
       </c>
       <c r="C13" t="n">
-        <v>-23.805448</v>
+        <v>-175</v>
       </c>
       <c r="D13" t="n">
-        <v>0.17976396</v>
+        <v>5.6445451</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>13.379234</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>175</v>
       </c>
       <c r="C14" t="n">
-        <v>10.305448</v>
+        <v>-145.40653</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.17976396</v>
+        <v>-5.6445451</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1124,10 +1124,10 @@
         <v>400</v>
       </c>
       <c r="C15" t="n">
-        <v>-164.10417</v>
+        <v>-178.44467</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.14416418</v>
+        <v>0.99847946</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>-156.34132</v>
+        <v>-211.22826</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.15140753</v>
+        <v>1.0079594</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>400</v>
       </c>
       <c r="C17" t="n">
-        <v>-231.10771</v>
+        <v>-236.5747</v>
       </c>
       <c r="D17" t="n">
-        <v>0.21536374</v>
+        <v>-1.0916639</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>-223.34487</v>
+        <v>-269.35829</v>
       </c>
       <c r="D18" t="n">
-        <v>0.20812039</v>
+        <v>-1.0821839</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>500</v>
       </c>
       <c r="C19" t="n">
-        <v>-304.34817</v>
+        <v>-276.76813</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0045863754</v>
+        <v>-0.0060025472</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>500</v>
       </c>
       <c r="C20" t="n">
-        <v>-90.863709</v>
+        <v>-138.25125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.031586706</v>
+        <v>-0.041339985</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>500</v>
       </c>
       <c r="C21" t="n">
-        <v>-317.93315</v>
+        <v>-219.39685</v>
       </c>
       <c r="D21" t="n">
-        <v>0.011829732</v>
+        <v>-0.015482493</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>500</v>
       </c>
       <c r="C22" t="n">
-        <v>-61.753037</v>
+        <v>-261.18971</v>
       </c>
       <c r="D22" t="n">
-        <v>0.041583927</v>
+        <v>-0.054424128</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>500</v>
       </c>
       <c r="C23" t="n">
-        <v>106.56031</v>
+        <v>-170.16498</v>
       </c>
       <c r="D23" t="n">
-        <v>0.029754195</v>
+        <v>-0.038941635</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>500</v>
       </c>
       <c r="C24" t="n">
-        <v>-284.86371</v>
+        <v>-332.25125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.044371801</v>
+        <v>-0.058072836</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>500</v>
       </c>
       <c r="C25" t="n">
-        <v>192.90573</v>
+        <v>45.259712</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0070221036</v>
+        <v>0.027540981</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>500</v>
       </c>
       <c r="C26" t="n">
-        <v>-314.75383</v>
+        <v>-227.32689</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.047427881</v>
+        <v>0.009136199899999999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>500</v>
       </c>
       <c r="C27" t="n">
-        <v>-314.75383</v>
+        <v>-227.32689</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.047427881</v>
+        <v>0.009136199899999999</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>500</v>
       </c>
       <c r="C28" t="n">
-        <v>274.60193</v>
+        <v>271.39407</v>
       </c>
       <c r="D28" t="n">
-        <v>0.079183882</v>
+        <v>-0.10363412</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1404,13 +1404,13 @@
         <v>500</v>
       </c>
       <c r="C29" t="n">
-        <v>-450</v>
+        <v>-312.34622</v>
       </c>
       <c r="D29" t="n">
-        <v>0.050331629</v>
+        <v>-0.009695559100000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.14999297</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>500</v>
       </c>
       <c r="C30" t="n">
-        <v>413.04202</v>
+        <v>80.35468400000001</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.017726158</v>
+        <v>0.023199605</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>500</v>
       </c>
       <c r="C31" t="n">
-        <v>-291.605</v>
+        <v>-172.53448</v>
       </c>
       <c r="D31" t="n">
-        <v>0.023442924</v>
+        <v>-0.0045158931</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>500</v>
       </c>
       <c r="C32" t="n">
-        <v>-158.395</v>
+        <v>-139.81174</v>
       </c>
       <c r="D32" t="n">
-        <v>0.027440417</v>
+        <v>-0.0052859442</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         <v>500</v>
       </c>
       <c r="C33" t="n">
-        <v>-112.3025</v>
+        <v>-52.76724</v>
       </c>
       <c r="D33" t="n">
-        <v>0.021768429</v>
+        <v>-0.0041933293</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>500</v>
       </c>
       <c r="C34" t="n">
-        <v>-112.3025</v>
+        <v>-52.76724</v>
       </c>
       <c r="D34" t="n">
-        <v>0.021768429</v>
+        <v>-0.0041933293</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>500</v>
       </c>
       <c r="C35" t="n">
-        <v>116.02101</v>
+        <v>-50.322658</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.015414051</v>
+        <v>0.02017357</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>500</v>
       </c>
       <c r="C36" t="n">
-        <v>116.02101</v>
+        <v>-50.322658</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.015414051</v>
+        <v>0.02017357</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>500</v>
       </c>
       <c r="C37" t="n">
-        <v>52.021009</v>
+        <v>-114.32266</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.008477727799999999</v>
+        <v>0.011095463</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>500</v>
       </c>
       <c r="C38" t="n">
-        <v>52.021009</v>
+        <v>-114.32266</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.008477727799999999</v>
+        <v>0.011095463</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>500</v>
       </c>
       <c r="C39" t="n">
-        <v>-141.605</v>
+        <v>-160.18826</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.017770937</v>
+        <v>0.0034232782</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>110.56865</v>
+        <v>108.6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>110.69017</v>
+        <v>108.57433</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0034986073</v>
+        <v>-0.55832492</v>
       </c>
     </row>
     <row r="4">
@@ -1674,10 +1674,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>110.01353</v>
+        <v>107.95579</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19355457</v>
+        <v>11.733273</v>
       </c>
     </row>
     <row r="5">
@@ -1685,10 +1685,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>110.24567</v>
+        <v>107.90413</v>
       </c>
       <c r="C5" t="n">
-        <v>0.060649027</v>
+        <v>-0.37302208</v>
       </c>
     </row>
     <row r="6">
@@ -1696,10 +1696,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>110.05447</v>
+        <v>109.0154</v>
       </c>
       <c r="C6" t="n">
-        <v>0.035069326</v>
+        <v>-1.7963991</v>
       </c>
     </row>
     <row r="7">
@@ -1707,10 +1707,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>113.02877</v>
+        <v>109.23542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.037781393</v>
+        <v>-4.4634953</v>
       </c>
     </row>
     <row r="8">
@@ -1718,10 +1718,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>109.29267</v>
+        <v>115.09</v>
       </c>
       <c r="C8" t="n">
-        <v>0.24693538</v>
+        <v>-30.514076</v>
       </c>
     </row>
     <row r="9">
@@ -1729,10 +1729,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>109.7019</v>
+        <v>115.09</v>
       </c>
       <c r="C9" t="n">
-        <v>0.15086038</v>
+        <v>-21.400278</v>
       </c>
     </row>
     <row r="10">
@@ -1740,10 +1740,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>109.88166</v>
+        <v>107.35531</v>
       </c>
       <c r="C10" t="n">
-        <v>0.19013937</v>
+        <v>7.474722</v>
       </c>
     </row>
     <row r="11">
@@ -1751,10 +1751,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>109.52213</v>
+        <v>109.44545</v>
       </c>
       <c r="C11" t="n">
-        <v>0.13385639</v>
+        <v>2.5917996</v>
       </c>
     </row>
     <row r="12">
@@ -1762,10 +1762,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109.7375</v>
+        <v>108.35379</v>
       </c>
       <c r="C12" t="n">
-        <v>0.32798687</v>
+        <v>22.464075</v>
       </c>
     </row>
     <row r="13">
@@ -1773,10 +1773,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>109.73025</v>
+        <v>108.36327</v>
       </c>
       <c r="C13" t="n">
-        <v>0.32146608</v>
+        <v>25.217896</v>
       </c>
     </row>
     <row r="14">
@@ -1784,10 +1784,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>109.74208</v>
+        <v>108.34779</v>
       </c>
       <c r="C14" t="n">
-        <v>0.47407399</v>
+        <v>35.748945</v>
       </c>
     </row>
     <row r="15">
@@ -1795,10 +1795,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>109.76908</v>
+        <v>108.31245</v>
       </c>
       <c r="C15" t="n">
-        <v>0.36614963</v>
+        <v>28.270627</v>
       </c>
     </row>
     <row r="16">
@@ -1806,10 +1806,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>109.80643</v>
+        <v>108.22684</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5670131899999999</v>
+        <v>48.642866</v>
       </c>
     </row>
     <row r="17">
@@ -1817,10 +1817,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>109.81346</v>
+        <v>108.25438</v>
       </c>
       <c r="C17" t="n">
-        <v>0.53421922</v>
+        <v>47.873451</v>
       </c>
     </row>
     <row r="18">
@@ -1828,10 +1828,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>109.71379</v>
+        <v>108.24468</v>
       </c>
       <c r="C18" t="n">
-        <v>0.65121922</v>
+        <v>55.994452</v>
       </c>
     </row>
     <row r="19">
@@ -1839,10 +1839,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>109.73724</v>
+        <v>108.24017</v>
       </c>
       <c r="C19" t="n">
-        <v>0.69204392</v>
+        <v>58.409935</v>
       </c>
     </row>
     <row r="20">
@@ -1850,10 +1850,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>109.79573</v>
+        <v>108.27758</v>
       </c>
       <c r="C20" t="n">
-        <v>0.43921955</v>
+        <v>46.025293</v>
       </c>
     </row>
     <row r="21">
@@ -1861,10 +1861,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>109.78032</v>
+        <v>108.29775</v>
       </c>
       <c r="C21" t="n">
-        <v>0.39281115</v>
+        <v>48.038199</v>
       </c>
     </row>
     <row r="22">
@@ -1872,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>109.75901</v>
+        <v>108.23597</v>
       </c>
       <c r="C22" t="n">
-        <v>0.72124257</v>
+        <v>59.781883</v>
       </c>
     </row>
     <row r="23">
@@ -1883,10 +1883,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>109.74124</v>
+        <v>108.2394</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8175339700000001</v>
+        <v>70.674685</v>
       </c>
     </row>
     <row r="24">
@@ -1894,10 +1894,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>109.77184</v>
+        <v>108.30885</v>
       </c>
       <c r="C24" t="n">
-        <v>0.38136653</v>
+        <v>50.553298</v>
       </c>
     </row>
     <row r="25">
@@ -1905,10 +1905,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>109.88562</v>
+        <v>108.1232</v>
       </c>
       <c r="C25" t="n">
-        <v>0.42422019</v>
+        <v>34.530374</v>
       </c>
     </row>
   </sheetData>
